--- a/data/services_backup/08-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
+++ b/data/services_backup/08-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -169,90 +169,192 @@
     <t>Protection Fiber Out Ids</t>
   </si>
   <si>
+    <t>f4a3f48a-d3ff-4def-93dc-33c8508bd914</t>
+  </si>
+  <si>
+    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
+  </si>
+  <si>
+    <t>HARINAVI B2</t>
+  </si>
+  <si>
+    <t>Converged Packet Aggregation Node</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1000293306_SONARPU_ADSR_4005</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>4 Mbps</t>
+  </si>
+  <si>
+    <t>LEASED CKT</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
+  </si>
+  <si>
+    <t>KALIGHAT B2</t>
+  </si>
+  <si>
+    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
+  </si>
+  <si>
+    <t>HNV PCM 1ST FLOOR</t>
+  </si>
+  <si>
+    <t>Kalighat Telephone Exchange</t>
+  </si>
+  <si>
+    <t>1000293306</t>
+  </si>
+  <si>
+    <t>10af1214-f384-4935-a4fd-3e5ce5a81408</t>
+  </si>
+  <si>
+    <t>67d8974e-d6c7-4486-8cd7-d32876685437</t>
+  </si>
+  <si>
+    <t>6aa6c4c1-3a64-4b5e-a3f6-3f434ab0efb3</t>
+  </si>
+  <si>
+    <t>E-LAN</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
+  </si>
+  <si>
+    <t>10.123.138.193</t>
+  </si>
+  <si>
+    <t>10.123.138.65</t>
+  </si>
+  <si>
+    <t>2f8bf116-f930-448a-88f3-e40cc869e717</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
+  </si>
+  <si>
+    <t>1 GBps</t>
+  </si>
+  <si>
+    <t>CPAN DL</t>
+  </si>
+  <si>
+    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKARPARA A1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKAR PARA BTS</t>
+  </si>
+  <si>
+    <t>61b21eeb-02d0-4660-b49e-72baff24942b</t>
+  </si>
+  <si>
+    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
+  </si>
+  <si>
+    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
+  </si>
+  <si>
+    <t>Optical Fiber</t>
+  </si>
+  <si>
+    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
+  </si>
+  <si>
+    <t>10.123.138.215</t>
+  </si>
+  <si>
+    <t>c9fcb82a-2c94-4b20-b715-80f50617202e</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 5 A1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>a94272f1-8c95-49f7-b77a-f166727925b9</t>
+  </si>
+  <si>
+    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
+  </si>
+  <si>
+    <t>10.123.138.225</t>
+  </si>
+  <si>
+    <t>c896cad7-c927-4cdd-b9db-15160a4e4431</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
+  </si>
+  <si>
+    <t>FE/GE(E)</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 4 A1</t>
+  </si>
+  <si>
+    <t>edfd118f-28a4-4a83-8519-f42620e484f0</t>
+  </si>
+  <si>
+    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
+  </si>
+  <si>
+    <t>10.123.138.233</t>
+  </si>
+  <si>
     <t>9d73c786-ac60-4932-b2d9-314d5123d672</t>
   </si>
   <si>
-    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
-  </si>
-  <si>
-    <t>HARINAVI B2</t>
-  </si>
-  <si>
-    <t>Converged Packet Aggregation Node</t>
-  </si>
-  <si>
     <t>3.9</t>
   </si>
   <si>
     <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.9-CTD_HNV_HARINAVI EXCH_10.123.138.229/1.3</t>
   </si>
   <si>
-    <t>1 GBps</t>
-  </si>
-  <si>
-    <t>CPAN DL</t>
-  </si>
-  <si>
-    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
-  </si>
-  <si>
     <t>HARINAVI NODE 3 A1</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t>HNV PCM 1ST FLOOR</t>
-  </si>
-  <si>
     <t>dfab40f7-f6ea-4976-93a8-b816333bae7f</t>
   </si>
   <si>
-    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
-  </si>
-  <si>
-    <t>Optical Fiber</t>
-  </si>
-  <si>
-    <t>1G</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
   </si>
   <si>
     <t>10.123.138.229</t>
   </si>
   <si>
-    <t>10.123.138.193</t>
-  </si>
-  <si>
-    <t>c9fcb82a-2c94-4b20-b715-80f50617202e</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 5 A1</t>
-  </si>
-  <si>
-    <t>a94272f1-8c95-49f7-b77a-f166727925b9</t>
-  </si>
-  <si>
-    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
-  </si>
-  <si>
-    <t>10.123.138.225</t>
-  </si>
-  <si>
     <t>8e58af51-86f1-4c9b-9f19-c0b531bf19de</t>
   </si>
   <si>
@@ -289,16 +391,13 @@
     <t>GOBINDAPUR B2</t>
   </si>
   <si>
+    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
+  </si>
+  <si>
     <t>GOBINDAPUR</t>
   </si>
   <si>
-    <t>1a8e1a59-f7c4-44c5-91dc-dc8b2f561fde</t>
-  </si>
-  <si>
-    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t>10G</t>
+    <t>066dc680-98c6-4b7a-82b6-06a47be03c82</t>
   </si>
   <si>
     <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
@@ -325,7 +424,7 @@
     <t>BARUIPUR RAIL CROSSING BTS</t>
   </si>
   <si>
-    <t>6f4ec11e-2854-47b0-9b3a-dae11a79ae7c</t>
+    <t>8ad7b79b-d4d7-4be7-98dd-0b8ce92e8210</t>
   </si>
   <si>
     <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
@@ -335,129 +434,6 @@
   </si>
   <si>
     <t>10.123.138.216</t>
-  </si>
-  <si>
-    <t>c896cad7-c927-4cdd-b9db-15160a4e4431</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
-  </si>
-  <si>
-    <t>FE/GE(E)</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 4 A1</t>
-  </si>
-  <si>
-    <t>edfd118f-28a4-4a83-8519-f42620e484f0</t>
-  </si>
-  <si>
-    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
-  </si>
-  <si>
-    <t>10.123.138.233</t>
-  </si>
-  <si>
-    <t>f4a3f48a-d3ff-4def-93dc-33c8508bd914</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>SONARPUR_ADSR</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>4 Mbps</t>
-  </si>
-  <si>
-    <t>LEASED CKT</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
-  </si>
-  <si>
-    <t>KALIGHAT B2</t>
-  </si>
-  <si>
-    <t>Kalighat Telephone Exchange</t>
-  </si>
-  <si>
-    <t>1000293306</t>
-  </si>
-  <si>
-    <t>10af1214-f384-4935-a4fd-3e5ce5a81408</t>
-  </si>
-  <si>
-    <t>67d8974e-d6c7-4486-8cd7-d32876685437</t>
-  </si>
-  <si>
-    <t>6aa6c4c1-3a64-4b5e-a3f6-3f434ab0efb3</t>
-  </si>
-  <si>
-    <t>E-LAN</t>
-  </si>
-  <si>
-    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
-  </si>
-  <si>
-    <t>10.123.138.65</t>
-  </si>
-  <si>
-    <t>2f8bf116-f930-448a-88f3-e40cc869e717</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKARPARA A1</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA BTS</t>
-  </si>
-  <si>
-    <t>4407231e-d8d0-4db6-8779-237f0e4f0405</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
-  </si>
-  <si>
-    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
-  </si>
-  <si>
-    <t>10.123.138.215</t>
-  </si>
-  <si>
-    <t>fccbecf5-f40c-4f8a-925f-357e1c8148bd</t>
-  </si>
-  <si>
-    <t>1000293191_westbengalindustry_development_vlan-3832</t>
-  </si>
-  <si>
-    <t>3832</t>
-  </si>
-  <si>
-    <t>1000293191</t>
-  </si>
-  <si>
-    <t>c0fde12d-7af6-4d00-a03b-636fca4bc138</t>
   </si>
 </sst>
 </file>
@@ -558,16 +534,16 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -942,7 +918,8 @@
     <col min="23" max="23" width="19" customWidth="1"/>
     <col min="24" max="24" width="23" customWidth="1"/>
     <col min="25" max="27" width="30" customWidth="1"/>
-    <col min="28" max="29" width="29" customWidth="1"/>
+    <col min="28" max="28" width="29" customWidth="1"/>
+    <col min="29" max="29" width="28" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="30" customWidth="1"/>
@@ -1143,9 +1120,11 @@
         <v>57</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1154,32 +1133,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="V2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Y2" s="2" t="s">
         <v>55</v>
       </c>
@@ -1190,55 +1169,55 @@
         <v>55</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AM2" s="2"/>
       <c r="AN2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4">
-        <v>45999.262919166664</v>
+        <v>45999.448491863426</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="4">
-        <v>45999.262919166664</v>
+        <v>45999.448491863426</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -1247,7 +1226,7 @@
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>53</v>
@@ -1259,15 +1238,15 @@
         <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1276,28 +1255,28 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>54</v>
@@ -1312,55 +1291,53 @@
         <v>55</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AM3" s="6"/>
       <c r="AN3" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8">
-        <v>45999.25692962963</v>
+        <v>45999.44875991898</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV3" s="8">
-        <v>45999.27673020834</v>
+        <v>45999.44875991898</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
@@ -1369,7 +1346,7 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -1381,15 +1358,15 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1398,28 +1375,28 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="S4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>54</v>
@@ -1434,55 +1411,53 @@
         <v>55</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AM4" s="2"/>
       <c r="AN4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4">
-        <v>45999.26054398148</v>
+        <v>45999.44846886574</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV4" s="4">
-        <v>45999.28298319444</v>
+        <v>45999.44876238426</v>
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -1491,7 +1466,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>53</v>
@@ -1503,15 +1478,15 @@
         <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1520,28 +1495,28 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>54</v>
@@ -1556,55 +1531,53 @@
         <v>55</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AM5" s="6"/>
       <c r="AN5" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8">
-        <v>45999.25128783565</v>
+        <v>45999.44848869213</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV5" s="8">
-        <v>45999.28382292824</v>
+        <v>45999.44876478009</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -1613,7 +1586,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -1625,15 +1598,15 @@
         <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1642,28 +1615,28 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
       <c r="P6" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>54</v>
@@ -1678,53 +1651,53 @@
         <v>55</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4">
-        <v>45999.26175287037</v>
+        <v>45999.44846274305</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV6" s="4">
-        <v>45999.28434439815</v>
+        <v>45999.44876752315</v>
       </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -1733,7 +1706,7 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>53</v>
@@ -1745,15 +1718,15 @@
         <v>55</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1762,28 +1735,28 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>54</v>
@@ -1798,55 +1771,53 @@
         <v>55</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AM7" s="6"/>
       <c r="AN7" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8">
-        <v>45999.258393321754</v>
+        <v>45999.448474687495</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AT7" s="6"/>
       <c r="AU7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AV7" s="8">
-        <v>45999.28530555556</v>
+        <v>45999.44876996528</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -1855,7 +1826,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -1867,17 +1838,15 @@
         <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1886,31 +1855,31 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>122</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>55</v>
@@ -1922,57 +1891,53 @@
         <v>55</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP8" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4">
-        <v>45999.24586065972</v>
+        <v>45999.448772233794</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AV8" s="4">
-        <v>45999.28625369213</v>
+        <v>45999.448772233794</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
@@ -1980,254 +1945,124 @@
       <c r="AZ8" s="2"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6" t="s">
+      <c r="AP9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12">
+        <v>45999.448775173616</v>
+      </c>
+      <c r="AS9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8">
-        <v>45999.25387975694</v>
-      </c>
-      <c r="AS9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV9" s="8">
-        <v>45999.30210563657</v>
-      </c>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK10" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12">
-        <v>45999.30410916667</v>
-      </c>
-      <c r="AS10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV10" s="12">
-        <v>45999.30671819445</v>
-      </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>45999.448775173616</v>
+      </c>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/services_backup/08-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
+++ b/data/services_backup/08-12-2025-HNV_PCM_1ST_FLOOR_CPAN_10.123.138.193_connections.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -169,78 +169,279 @@
     <t>Protection Fiber Out Ids</t>
   </si>
   <si>
+    <t>c0c371ad-9f25-4af4-be71-98ecd0ae4671</t>
+  </si>
+  <si>
+    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
+  </si>
+  <si>
+    <t>HARINAVI B2</t>
+  </si>
+  <si>
+    <t>Converged Packet Aggregation Node</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1000354024_IG-BORDER_202</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>4 Mbps</t>
+  </si>
+  <si>
+    <t>LEASED CKT</t>
+  </si>
+  <si>
+    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
+  </si>
+  <si>
+    <t>PARK CIRCUS B1</t>
+  </si>
+  <si>
+    <t>8eb7c593-3536-41e0-a0dc-eb6257a95b8d</t>
+  </si>
+  <si>
+    <t>SP OFFICE BRP</t>
+  </si>
+  <si>
+    <t>HNV PCM 1ST FLOOR</t>
+  </si>
+  <si>
+    <t>Circus Telephone Exchange</t>
+  </si>
+  <si>
+    <t>1000354024</t>
+  </si>
+  <si>
+    <t>6a6102be-1442-482e-8779-78ff7d54f636</t>
+  </si>
+  <si>
+    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
+  </si>
+  <si>
+    <t>a3908bf9-bace-48d4-83d2-56e9c5485c2f</t>
+  </si>
+  <si>
+    <t>6aa6c4c1-3a64-4b5e-a3f6-3f434ab0efb3</t>
+  </si>
+  <si>
+    <t>E-LAN</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fd2b2e83-2967-4e16-a538-efbb02043f22</t>
+  </si>
+  <si>
+    <t>10.123.25.138</t>
+  </si>
+  <si>
+    <t>10.123.138.193</t>
+  </si>
+  <si>
+    <t>318a9c43-9563-4be7-961f-9e221d7a7835</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>MAAN_EMS_LOGIN_CTD</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>10 Mbps</t>
+  </si>
+  <si>
+    <t>MAAN EMS LOGIN</t>
+  </si>
+  <si>
+    <t>c65050fe-1337-4866-890b-398cd9b9a4d6</t>
+  </si>
+  <si>
+    <t>TELEPHONE BHAWAN B2/05</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Telephone Bhawan</t>
+  </si>
+  <si>
+    <t>NOT IN CTD TX</t>
+  </si>
+  <si>
+    <t>4c635008-3eb0-4246-bfa4-57dfcf85d48d</t>
+  </si>
+  <si>
+    <t>5123be70-eb5b-48a8-8ffa-4f3baa56cc19</t>
+  </si>
+  <si>
+    <t>d7d6d7dd-97fe-4193-a2d7-c75b01717a9f</t>
+  </si>
+  <si>
+    <t>E-TREE</t>
+  </si>
+  <si>
+    <t>a7b79a60-b262-45cc-80df-fdba78f4201c</t>
+  </si>
+  <si>
+    <t>10.123.142.1</t>
+  </si>
+  <si>
+    <t>319abdf0-0324-4f7e-a9f9-eec9e1134026</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>WIFI SARBTRA_4060</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
+    <t>25 mBPS</t>
+  </si>
+  <si>
+    <t>WIFI SARBTRA</t>
+  </si>
+  <si>
+    <t>0b702768-1c37-4e55-a948-b681b18ebe75</t>
+  </si>
+  <si>
+    <t>7db41e76-38e9-4059-bece-4238d3508d9b</t>
+  </si>
+  <si>
+    <t>00d7d93c-2cef-447e-817c-85e279800e13</t>
+  </si>
+  <si>
+    <t>1000293414_SONARPUR_BLRO_3824</t>
+  </si>
+  <si>
+    <t>3824</t>
+  </si>
+  <si>
+    <t>KALIGHAT B2</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>b2dba624-533d-48c2-ac79-6df541ab8054</t>
+  </si>
+  <si>
+    <t>Sonarpur Bhq</t>
+  </si>
+  <si>
+    <t>Kalighat Telephone Exchange</t>
+  </si>
+  <si>
+    <t>1000293414</t>
+  </si>
+  <si>
+    <t>8411e68d-3a48-4f3a-8fed-015d228cc59b</t>
+  </si>
+  <si>
+    <t>67d8974e-d6c7-4486-8cd7-d32876685437</t>
+  </si>
+  <si>
+    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
+  </si>
+  <si>
+    <t>10.123.138.65</t>
+  </si>
+  <si>
+    <t>37d3d21a-b2f3-46b4-9831-38faf6caa6d7</t>
+  </si>
+  <si>
+    <t>1000123043_SBI_SUBHASGRAM_4031</t>
+  </si>
+  <si>
+    <t>4031</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>53f28861-be94-4f78-a6da-abd2afd6e7fa</t>
+  </si>
+  <si>
+    <t>SBI SUBHASGRAM</t>
+  </si>
+  <si>
+    <t>1000123043</t>
+  </si>
+  <si>
+    <t>314bff74-a98e-4d5f-90ad-d69373c019ad</t>
+  </si>
+  <si>
+    <t>3ba1c0fc-69c1-41db-acc4-f4e8d4cfd413</t>
+  </si>
+  <si>
+    <t>10.123.25.65</t>
+  </si>
+  <si>
+    <t>9638089e-ff22-4a20-8645-c1049bb647bf</t>
+  </si>
+  <si>
+    <t>1000540738_BARUIPUR_POLYTECH_3723</t>
+  </si>
+  <si>
+    <t>3723</t>
+  </si>
+  <si>
+    <t>50 Mbps</t>
+  </si>
+  <si>
+    <t>KALIGHAT B2/02</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5538422e-4955-4ae3-8e58-7e4e801aaeac</t>
+  </si>
+  <si>
+    <t>BARUIPUR POLYTECHNIC</t>
+  </si>
+  <si>
+    <t>1000540738</t>
+  </si>
+  <si>
+    <t>aaaf44d4-c7d0-457d-aeb3-6c9c1e002994</t>
+  </si>
+  <si>
+    <t>7b39371e-a516-4a54-b4b7-d159a156a702</t>
+  </si>
+  <si>
+    <t>10.123.138.1</t>
+  </si>
+  <si>
     <t>f4a3f48a-d3ff-4def-93dc-33c8508bd914</t>
   </si>
   <si>
-    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
-  </si>
-  <si>
-    <t>HARINAVI B2</t>
-  </si>
-  <si>
-    <t>Converged Packet Aggregation Node</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>1000293306_SONARPU_ADSR_4005</t>
   </si>
   <si>
     <t>4005</t>
   </si>
   <si>
-    <t>4 Mbps</t>
-  </si>
-  <si>
-    <t>LEASED CKT</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
-  </si>
-  <si>
-    <t>KALIGHAT B2</t>
-  </si>
-  <si>
-    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t>HNV PCM 1ST FLOOR</t>
-  </si>
-  <si>
-    <t>Kalighat Telephone Exchange</t>
-  </si>
-  <si>
     <t>1000293306</t>
   </si>
   <si>
     <t>10af1214-f384-4935-a4fd-3e5ce5a81408</t>
   </si>
   <si>
-    <t>67d8974e-d6c7-4486-8cd7-d32876685437</t>
-  </si>
-  <si>
-    <t>6aa6c4c1-3a64-4b5e-a3f6-3f434ab0efb3</t>
-  </si>
-  <si>
-    <t>E-LAN</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>b72ea367-47e2-4cb6-af57-75fdbefa7cba</t>
-  </si>
-  <si>
-    <t>10.123.138.193</t>
-  </si>
-  <si>
-    <t>10.123.138.65</t>
-  </si>
-  <si>
     <t>2f8bf116-f930-448a-88f3-e40cc869e717</t>
   </si>
   <si>
@@ -289,9 +490,6 @@
     <t>c9fcb82a-2c94-4b20-b715-80f50617202e</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
   </si>
   <si>
@@ -313,9 +511,6 @@
     <t>c896cad7-c927-4cdd-b9db-15160a4e4431</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
   </si>
   <si>
@@ -434,6 +629,78 @@
   </si>
   <si>
     <t>10.123.138.216</t>
+  </si>
+  <si>
+    <t>a57d690f-bb7f-47a4-96f5-e6f3c1accf4c</t>
+  </si>
+  <si>
+    <t>1000293191_westbengalindustry_development_vlan-3832</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>1000293191</t>
+  </si>
+  <si>
+    <t>f3dc0c4d-637f-460b-a815-28798f65e972</t>
+  </si>
+  <si>
+    <t>10d81910-437a-45c3-9764-bf36a742898e</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>HARINAVI BSNL OLT</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>550 Mbps</t>
+  </si>
+  <si>
+    <t>OLT</t>
+  </si>
+  <si>
+    <t>b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
+  </si>
+  <si>
+    <t>Harinavi -B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>Multi-Access Aggregation Node</t>
+  </si>
+  <si>
+    <t>35978644-eab7-4cef-b52a-63095453c9e7</t>
+  </si>
+  <si>
+    <t>91bd40a2-2a21-495a-ab06-33adc9871f97</t>
+  </si>
+  <si>
+    <t>E-LS</t>
+  </si>
+  <si>
+    <t>877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
+  </si>
+  <si>
+    <t>10.127.0.67</t>
+  </si>
+  <si>
+    <t>7e441f11-38d9-4eb9-aea0-a01d54b37b79</t>
+  </si>
+  <si>
+    <t>CHABI ENTERPRICE(ATRI GREEN COMPLEX)</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>a477c4bb-7da4-4725-a3c0-0dd7fe47edd5</t>
   </si>
 </sst>
 </file>
@@ -534,16 +801,16 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -915,13 +1182,12 @@
     <col min="20" max="20" width="27" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="30" customWidth="1"/>
-    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="23" customWidth="1"/>
     <col min="25" max="27" width="30" customWidth="1"/>
-    <col min="28" max="28" width="29" customWidth="1"/>
-    <col min="29" max="29" width="28" customWidth="1"/>
+    <col min="28" max="29" width="29" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
     <col min="32" max="32" width="30" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
@@ -1136,43 +1402,43 @@
         <v>60</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>67</v>
@@ -1187,37 +1453,39 @@
         <v>69</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AN2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4">
-        <v>45999.448491863426</v>
+        <v>45999.49130068287</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AV2" s="4">
-        <v>45999.448491863426</v>
+        <v>45999.49130068287</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -1226,7 +1494,7 @@
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>53</v>
@@ -1238,15 +1506,17 @@
         <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1255,25 +1525,25 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>65</v>
@@ -1294,50 +1564,54 @@
         <v>65</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
+      <c r="AE3" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="AF3" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="AN3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8">
-        <v>45999.44875991898</v>
+        <v>45999.479801747686</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AV3" s="8">
-        <v>45999.44875991898</v>
+        <v>45999.49285929398</v>
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
@@ -1346,7 +1620,7 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -1358,15 +1632,17 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1375,25 +1651,21 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>65</v>
@@ -1407,57 +1679,51 @@
       <c r="Z4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AF4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AJ4" s="2"/>
       <c r="AK4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM4" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AN4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AP4" s="2"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4">
-        <v>45999.44846886574</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>45999.500833541664</v>
+      </c>
+      <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AV4" s="4">
-        <v>45999.44876238426</v>
+        <v>45999.500833541664</v>
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -1466,7 +1732,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>53</v>
@@ -1478,15 +1744,17 @@
         <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1495,28 +1763,28 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>54</v>
@@ -1534,50 +1802,54 @@
         <v>65</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM5" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="AN5" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8">
-        <v>45999.44848869213</v>
+        <v>45999.505829988426</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AV5" s="8">
-        <v>45999.44876478009</v>
+        <v>45999.505829988426</v>
       </c>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -1586,7 +1858,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -1598,15 +1870,17 @@
         <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1615,28 +1889,28 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
       <c r="P6" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>54</v>
@@ -1654,50 +1928,54 @@
         <v>65</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AN6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4">
-        <v>45999.44846274305</v>
+        <v>45999.516249444445</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AV6" s="4">
-        <v>45999.44876752315</v>
+        <v>45999.516249444445</v>
       </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -1706,7 +1984,7 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>53</v>
@@ -1718,15 +1996,17 @@
         <v>55</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1735,28 +2015,28 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>54</v>
@@ -1774,50 +2054,54 @@
         <v>65</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM7" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="AN7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8">
-        <v>45999.448474687495</v>
+        <v>45999.522948611106</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="AT7" s="6"/>
       <c r="AU7" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AV7" s="8">
-        <v>45999.44876996528</v>
+        <v>45999.522948611106</v>
       </c>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -1826,7 +2110,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -1838,15 +2122,17 @@
         <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1855,31 +2141,31 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>55</v>
@@ -1891,53 +2177,55 @@
         <v>55</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4">
-        <v>45999.448772233794</v>
+        <v>45999.448491863426</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AV8" s="4">
-        <v>45999.448772233794</v>
+        <v>45999.448491863426</v>
       </c>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
@@ -1945,124 +2233,1222 @@
       <c r="AZ8" s="2"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8">
+        <v>45999.44875991898</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>45999.44875991898</v>
+      </c>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="10" t="s">
+      <c r="AP10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4">
+        <v>45999.44846886574</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>45999.44876238426</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="10" t="s">
+      <c r="X11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL9" s="10" t="s">
+      <c r="AC11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8">
+        <v>45999.44848869213</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>45999.44876478009</v>
+      </c>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4">
+        <v>45999.44846274305</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>45999.44876752315</v>
+      </c>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8">
+        <v>45999.448474687495</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>45999.44876996528</v>
+      </c>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4">
+        <v>45999.448772233794</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>45999.448772233794</v>
+      </c>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8">
+        <v>45999.448775173616</v>
+      </c>
+      <c r="AS15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>45999.448775173616</v>
+      </c>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4">
+        <v>45999.46374924769</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>45999.46374924769</v>
+      </c>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO9" s="10" t="s">
+      <c r="AF17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AP9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12">
-        <v>45999.448775173616</v>
-      </c>
-      <c r="AS9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10" t="s">
+      <c r="AP17" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8">
+        <v>45999.525854224536</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV17" s="8">
+        <v>45999.52800204861</v>
+      </c>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AV9" s="12">
-        <v>45999.448775173616</v>
-      </c>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
+      <c r="AO18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12">
+        <v>45999.50876927083</v>
+      </c>
+      <c r="AS18" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV18" s="12">
+        <v>45999.52850930556</v>
+      </c>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
